--- a/cypress/downloads/order-invoice_deepsharma0312.xlsx
+++ b/cypress/downloads/order-invoice_deepsharma0312.xlsx
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>67a011afe2b5443b1f4430c2</v>
+        <v>67a24853e2b5443b1f477b3a</v>
       </c>
       <c r="B2" t="str">
         <v>qwerty</v>

--- a/cypress/downloads/order-invoice_deepsharma0312.xlsx
+++ b/cypress/downloads/order-invoice_deepsharma0312.xlsx
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>67a24853e2b5443b1f477b3a</v>
+        <v>67a24930e2b5443b1f477cdf</v>
       </c>
       <c r="B2" t="str">
         <v>qwerty</v>

--- a/cypress/downloads/order-invoice_deepsharma0312.xlsx
+++ b/cypress/downloads/order-invoice_deepsharma0312.xlsx
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>67a24930e2b5443b1f477cdf</v>
+        <v>67a24cdbe2b5443b1f478337</v>
       </c>
       <c r="B2" t="str">
         <v>qwerty</v>

--- a/cypress/downloads/order-invoice_deepsharma0312.xlsx
+++ b/cypress/downloads/order-invoice_deepsharma0312.xlsx
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>67a24cdbe2b5443b1f478337</v>
+        <v>67a24d07e2b5443b1f478387</v>
       </c>
       <c r="B2" t="str">
         <v>qwerty</v>
